--- a/model/bom-profile-zh-cn.xlsx
+++ b/model/bom-profile-zh-cn.xlsx
@@ -1,129 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\github\RhythmTerminal\model\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3627B200-3D27-4ED1-9293-02E6EAD094BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="1935" windowWidth="24855" windowHeight="15345" xr2:uid="{C207EF75-21E2-4EFA-A102-751A252AF1CC}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>长度(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总长(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量(kg)</t>
+  </si>
+  <si>
+    <t>单价（元/m）</t>
+  </si>
+  <si>
+    <t>总计（元）</t>
+  </si>
+  <si>
+    <t>假设损耗</t>
+  </si>
+  <si>
+    <t>总计-计损耗（元）</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧标3030Q-喷砂黑</t>
+  </si>
+  <si>
+    <t>两条140的型材上钻两个m8孔</t>
+  </si>
+  <si>
+    <t>距一端位置：</t>
   </si>
   <si>
     <t>14mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>85mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两条140上钻两个m8孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距一端位置：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价（元/m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量(kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计-计损耗（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧标3030Q-喷砂黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设损耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下图中红圈处为需要打孔的型材</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Noto Sans SC"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,30 +93,30 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,40 +136,32 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1187352</xdr:colOff>
+      <xdr:colOff>61745</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F34935B-4DFC-D602-53D8-9EE3B9972B1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="42863" y="6348412"/>
           <a:ext cx="7454802" cy="6510338"/>
@@ -224,10 +173,10 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>247649</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -239,43 +188,29 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="组合 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4E17DA-883B-6474-3E04-BBF447C3E544}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name=""/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+      <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="247650" y="1931504"/>
-          <a:ext cx="4845755" cy="4193485"/>
+          <a:ext cx="5342711" cy="4193485"/>
           <a:chOff x="247650" y="1931504"/>
           <a:chExt cx="4845755" cy="4193485"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="图片 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25247233-6304-1FC9-405E-57AAFF360CE3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
+          <a:blip r:embed="rId2"/>
+          <a:stretch/>
         </xdr:blipFill>
-        <xdr:spPr>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="247650" y="1931504"/>
             <a:ext cx="4845755" cy="4193485"/>
@@ -285,21 +220,15 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="椭圆 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9F8663-B934-2483-90B0-337968DBE720}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="椭圆 3"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
-        <xdr:spPr>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="1598544" y="3718891"/>
-            <a:ext cx="629478" cy="579783"/>
+            <a:ext cx="629477" cy="579783"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -331,26 +260,22 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="椭圆 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84655FA-FCEB-4161-9007-60AD26080924}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="5" name="椭圆 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
-        <xdr:spPr>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="3233531" y="4641574"/>
-            <a:ext cx="629478" cy="579783"/>
+            <a:ext cx="629477" cy="579783"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -382,8 +307,10 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -393,8 +320,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,108 +646,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Display"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,7 +661,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -571,7 +687,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -648,7 +764,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -680,7 +796,7 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -699,33 +815,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0CA367-F575-4FD2-9D9F-CF31C6142B5B}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="29.421875"/>
+    <col customWidth="1" min="2" max="2" width="12"/>
+    <col customWidth="1" min="3" max="3" width="11.140625"/>
+    <col customWidth="1" min="4" max="4" width="10.140625"/>
+    <col customWidth="1" min="5" max="5" width="14.00390625"/>
+    <col customWidth="1" min="6" max="6" width="12.00390625"/>
+    <col customWidth="1" min="7" max="7" width="10.28125"/>
+    <col customWidth="1" min="8" max="8" width="17.8515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,22 +848,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18">
       <c r="A2" s="1">
         <v>140</v>
       </c>
@@ -759,21 +871,21 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <f>A2*B2</f>
+        <f t="shared" ref="C2:C5" si="0">A2*B2</f>
         <v>560</v>
       </c>
       <c r="D2" s="1">
-        <f>C2/1000*0.8</f>
+        <f t="shared" ref="D2:D6" si="1">C2/1000*0.8</f>
         <v>0.44800000000000006</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="18">
       <c r="A3" s="1">
         <v>80</v>
       </c>
@@ -781,19 +893,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D5" si="1">C3/1000*0.8</f>
+        <f t="shared" si="1"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="18">
       <c r="A4" s="1">
         <v>160</v>
       </c>
@@ -808,12 +920,12 @@
         <f t="shared" si="1"/>
         <v>0.76800000000000002</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="18">
       <c r="A5" s="1">
         <v>960</v>
       </c>
@@ -828,14 +940,14 @@
         <f t="shared" si="1"/>
         <v>2.3039999999999998</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="18">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B2:B5)</f>
@@ -846,27 +958,27 @@
         <v>4720</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/1000*0.8</f>
+        <f t="shared" si="1"/>
         <v>3.7759999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>19.7</v>
+        <v>19.699999999999999</v>
       </c>
       <c r="F6" s="1">
-        <f>D6*19.7</f>
-        <v>74.387199999999993</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.0000000000000007E-2</v>
+        <f>C6/1000*19.7</f>
+        <v>92.983999999999995</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7.0000000000000007e-002</v>
       </c>
       <c r="H6" s="1">
         <f>F6*(1+G6)</f>
-        <v>79.594303999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>99.49288</v>
+      </c>
+    </row>
+    <row r="7" ht="18">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -876,25 +988,27 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" ht="18">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="18">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -904,7 +1018,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" ht="18">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -914,7 +1028,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -924,7 +1038,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" ht="18">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -934,7 +1048,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -944,7 +1058,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -954,7 +1068,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" ht="18">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -964,7 +1078,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" ht="18">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -974,7 +1088,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" ht="18">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -984,7 +1098,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" ht="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -994,7 +1108,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" ht="18">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1004,7 +1118,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" ht="18">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1014,7 +1128,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" ht="18">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1024,7 +1138,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" ht="18">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1034,7 +1148,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" ht="18">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1044,7 +1158,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" ht="18">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1054,7 +1168,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" ht="18">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1064,7 +1178,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" ht="18">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1074,7 +1188,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" ht="18">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1084,7 +1198,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" ht="18">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1095,11 +1209,14 @@
       <c r="H28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:H5"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>